--- a/data/trans_dic/CoPsoQ_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R-Dificultad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.1926469552057141</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3491461510654256</v>
+        <v>0.3491461510654255</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2077076051247447</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1746300295601579</v>
+        <v>0.1727020435874739</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1510873863590632</v>
+        <v>0.1552539130114428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1687252825771278</v>
+        <v>0.1466217138977401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1529271725986079</v>
+        <v>0.1529289916484044</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1946015223170195</v>
+        <v>0.1929338671307922</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1503605173259829</v>
+        <v>0.1447397687239859</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1802311211557726</v>
+        <v>0.1805934228439834</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1801063221601272</v>
+        <v>0.1794549620681803</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.197824986405377</v>
+        <v>0.1975286192863306</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2835288083681703</v>
+        <v>0.2778927885296327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2473273389959735</v>
+        <v>0.249493430063318</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6162507143275275</v>
+        <v>0.6032865845450259</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2672655898967728</v>
+        <v>0.2669638889706136</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2974177335071436</v>
+        <v>0.2993866105534755</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4460918295510788</v>
+        <v>0.4315913827862715</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.257974632355666</v>
+        <v>0.2573478530546757</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.254421351250945</v>
+        <v>0.2528825022331014</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4735774241338294</v>
+        <v>0.4665627514897569</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2011029395443396</v>
+        <v>0.198432822739698</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1292364238911121</v>
+        <v>0.1310386588597141</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1101136274705833</v>
+        <v>0.111893716144247</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1980305242353108</v>
+        <v>0.2002859251027719</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1694316669148026</v>
+        <v>0.1707914962407798</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09122093855318315</v>
+        <v>0.09035743154784921</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2109525860323425</v>
+        <v>0.2113055237078124</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1583092525328332</v>
+        <v>0.1622499646415465</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.12122219622454</v>
+        <v>0.1174859405860312</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2897696445907143</v>
+        <v>0.2885446577446729</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2022485737478581</v>
+        <v>0.2041936921915726</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2788575329814279</v>
+        <v>0.2835759372841384</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3172352573931613</v>
+        <v>0.3125430084494873</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2725091564128679</v>
+        <v>0.270697516694734</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2383685224840321</v>
+        <v>0.228852637463718</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2843426876679789</v>
+        <v>0.2814983341890877</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.220040673601917</v>
+        <v>0.2234069509950184</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.235418553614775</v>
+        <v>0.2306986240377309</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.2212383183858022</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.3000094423053829</v>
+        <v>0.300009442305383</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1648093437257556</v>
+        <v>0.1628848855087293</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2149635905748591</v>
+        <v>0.2108046465636692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2058570854099689</v>
+        <v>0.2172510234443582</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1881901309058381</v>
+        <v>0.1900380677216088</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1310175535606852</v>
+        <v>0.1300998557283259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2254688861904246</v>
+        <v>0.2243193886041166</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1840636331504676</v>
+        <v>0.182622577935164</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1916000953119784</v>
+        <v>0.1928690536566529</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2402003873263968</v>
+        <v>0.2405414251907149</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2472127730382023</v>
+        <v>0.2453105922432743</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2938018099581112</v>
+        <v>0.296490815629743</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3896769185143478</v>
+        <v>0.3950010168572564</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2895383884960719</v>
+        <v>0.2934582286068928</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2150335998108626</v>
+        <v>0.2117859353429128</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3833063417295562</v>
+        <v>0.3769359509869634</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2484853411278996</v>
+        <v>0.2454139464028375</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2509465053191227</v>
+        <v>0.2550037789656369</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.367324480863243</v>
+        <v>0.3627844412264859</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.3043214621792023</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.4158678578992303</v>
+        <v>0.4158678578992302</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1926716049798144</v>
+        <v>0.1872824884072661</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2359190972841261</v>
+        <v>0.2328671058645442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3408413812965514</v>
+        <v>0.33673330854577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1778558777609552</v>
+        <v>0.1792364642962907</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.250254664051146</v>
+        <v>0.2546170851534549</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3353782626527219</v>
+        <v>0.3317059840215252</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2033264647359255</v>
+        <v>0.1988658875761472</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2555979496526453</v>
+        <v>0.2603530881623575</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3635693635399925</v>
+        <v>0.3635055249839288</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3010917101384285</v>
+        <v>0.3022306912266655</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3606408380849424</v>
+        <v>0.3521190988937032</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4930538204285634</v>
+        <v>0.5000436007347731</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3209007993624043</v>
+        <v>0.3191786617100321</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3838696711211548</v>
+        <v>0.38883947800587</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4967617486446952</v>
+        <v>0.4896810991467587</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2907707388458213</v>
+        <v>0.2877113307328805</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3485001871756391</v>
+        <v>0.3492276259766441</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4759597963270039</v>
+        <v>0.479355361977741</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1994374324853402</v>
+        <v>0.2000078793844383</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2047543730839085</v>
+        <v>0.2035416589069008</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2725145020372557</v>
+        <v>0.2793997009022144</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2081785427061892</v>
+        <v>0.2091756612190476</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2540913484151383</v>
+        <v>0.258809707660189</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2119538726402603</v>
+        <v>0.2107340799548676</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2102843382770123</v>
+        <v>0.2096777759927553</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2814033247566074</v>
+        <v>0.283837930302817</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2472089074109037</v>
+        <v>0.2484442082667467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.249244357964439</v>
+        <v>0.2484065610848259</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3763650563047719</v>
+        <v>0.3807644583613475</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2666491342984649</v>
+        <v>0.2663547161501861</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3416253848432236</v>
+        <v>0.3434576366427008</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2495387524725075</v>
+        <v>0.244959216675018</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2439955193499861</v>
+        <v>0.2450345776228723</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3480006335338797</v>
+        <v>0.3518154223893687</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>47883</v>
+        <v>47354</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>44356</v>
+        <v>45579</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6204</v>
+        <v>5391</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>33380</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>53950</v>
+        <v>53487</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5825</v>
+        <v>5608</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>88758</v>
+        <v>88936</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>102806</v>
+        <v>102435</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14938</v>
+        <v>14916</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>77742</v>
+        <v>76197</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>72610</v>
+        <v>73246</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22660</v>
+        <v>22183</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58336</v>
+        <v>58270</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>82453</v>
+        <v>82999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17283</v>
+        <v>16721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>127044</v>
+        <v>126735</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>145226</v>
+        <v>144348</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>35761</v>
+        <v>35232</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>75245</v>
+        <v>74246</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>50463</v>
+        <v>51167</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12866</v>
+        <v>13074</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>49912</v>
+        <v>50480</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45756</v>
+        <v>46123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8633</v>
+        <v>8552</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>132099</v>
+        <v>132320</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>104568</v>
+        <v>107170</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>25636</v>
+        <v>24846</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>108421</v>
+        <v>107963</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>78973</v>
+        <v>79732</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32582</v>
+        <v>33134</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>79956</v>
+        <v>78773</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>73592</v>
+        <v>73103</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22560</v>
+        <v>21659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>178057</v>
+        <v>176275</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>145343</v>
+        <v>147566</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>49787</v>
+        <v>48789</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>74085</v>
+        <v>73220</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>98064</v>
+        <v>96167</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24152</v>
+        <v>25489</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51816</v>
+        <v>52325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38078</v>
+        <v>37812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27036</v>
+        <v>26898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>133420</v>
+        <v>132375</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>143092</v>
+        <v>144039</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>56984</v>
+        <v>57065</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>111126</v>
+        <v>110271</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>134029</v>
+        <v>135256</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45719</v>
+        <v>46343</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79721</v>
+        <v>80801</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>62496</v>
+        <v>61552</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45963</v>
+        <v>45199</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>180116</v>
+        <v>177890</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>187413</v>
+        <v>190443</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>87143</v>
+        <v>86066</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55432</v>
+        <v>53882</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>64913</v>
+        <v>64073</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>68361</v>
+        <v>67537</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31719</v>
+        <v>31965</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>48565</v>
+        <v>49412</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>43036</v>
+        <v>42565</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>94759</v>
+        <v>92680</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>119930</v>
+        <v>122161</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>119573</v>
+        <v>119552</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>86625</v>
+        <v>86953</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>99230</v>
+        <v>96885</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>98889</v>
+        <v>100291</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>57229</v>
+        <v>56922</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>74495</v>
+        <v>75459</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>63745</v>
+        <v>62836</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>135512</v>
+        <v>134086</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>163520</v>
+        <v>163862</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>156537</v>
+        <v>157653</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>276336</v>
+        <v>277127</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>289807</v>
+        <v>288091</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>128491</v>
+        <v>131738</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>192355</v>
+        <v>193277</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>96966</v>
+        <v>98766</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>489523</v>
+        <v>486705</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>514644</v>
+        <v>513160</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>240070</v>
+        <v>242147</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>342527</v>
+        <v>344239</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>352778</v>
+        <v>351592</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>177457</v>
+        <v>179531</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>246382</v>
+        <v>246110</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>130370</v>
+        <v>131069</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>576327</v>
+        <v>565751</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>597148</v>
+        <v>599691</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>296886</v>
+        <v>300140</v>
       </c>
     </row>
     <row r="24">
